--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\pava_RestAssured_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8024100-E994-4B39-A405-36222267DE0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E7FC7-AD20-44AE-B45E-255217D7A1DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02196F77-20F4-4294-B94A-9C3DBC81BB76}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Gaikwad</t>
   </si>
   <si>
-    <t>ronitgaikwad20@gmail.com</t>
-  </si>
-  <si>
     <t>Ronit@2353</t>
   </si>
   <si>
@@ -86,16 +80,31 @@
     <t>fargo</t>
   </si>
   <si>
-    <t>Jjass@gmail.com</t>
-  </si>
-  <si>
-    <t>margo12@gmail.com</t>
-  </si>
-  <si>
     <t>JJ@2353</t>
   </si>
   <si>
     <t>margo@2353</t>
+  </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>ronitsg2353@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeden2353@gmail.com</t>
+  </si>
+  <si>
+    <t>marlo2353@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeden@2353</t>
+  </si>
+  <si>
+    <t>Margo@2353</t>
   </si>
 </sst>
 </file>
@@ -119,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,10 +170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,119 +491,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEA1E7D-F38C-4977-B55A-6A7DB938AC04}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
         <v>9922922308</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
         <v>9922922309</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
         <v>9922922310</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2CCC57FE-499F-4F3C-A369-0187E112F256}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{BF381163-24A9-40AC-B823-C312F532956A}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2C6B5A17-1BA8-4550-A8D7-5992E4C28C5D}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{80EA5C3B-7C58-42F0-B424-1A48C78AF1D0}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{CEE25753-2D97-4375-B615-4CCC7109E93B}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{76C309E8-BEB6-4FAF-9A3C-E2ACB79A5FCF}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BF381163-24A9-40AC-B823-C312F532956A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CEE25753-2D97-4375-B615-4CCC7109E93B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{76C309E8-BEB6-4FAF-9A3C-E2ACB79A5FCF}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{360D7EE6-6926-4FC4-AB9A-82DDB935D754}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{D181EAC9-CE5A-4ACF-A895-3B1A576E41F9}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{BE0AFFBA-D759-40C3-AABA-D29E1DE659CA}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{2D3FCEC3-6112-48AA-87C1-AB8760B70163}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{9DC611F7-09E1-41A0-9D77-130945CE55CC}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{DF97090A-FD25-474E-8559-43CD2A04C4F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
